--- a/Shell/Bom.xlsx
+++ b/Shell/Bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\CNCPowerSupply\Shell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D0F0D-8C30-44E7-9C52-CAB0E2D3902E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF24569-337B-4C69-BE4B-D7FFD53653D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,11 +257,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M8*30/25圆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8*16*1</t>
+    <t>M6*12*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6*20/25圆头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,15 +882,15 @@
         <v>4</v>
       </c>
       <c r="M7">
-        <f>G7*E7</f>
+        <f t="shared" ref="M7:M14" si="3">G7*E7</f>
         <v>2</v>
       </c>
       <c r="N7">
-        <f>I7*E7</f>
+        <f t="shared" ref="N7:N14" si="4">I7*E7</f>
         <v>2</v>
       </c>
       <c r="O7">
-        <f>K7*E7</f>
+        <f t="shared" ref="O7:O14" si="5">K7*E7</f>
         <v>4</v>
       </c>
     </row>
@@ -923,15 +923,15 @@
         <v>12</v>
       </c>
       <c r="M8">
-        <f>G8*E8</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="N8">
-        <f>I8*E8</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O8">
-        <f>K8*E8</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
     </row>
@@ -964,15 +964,15 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <f>G9*E9</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N9">
-        <f>I9*E9</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O9">
-        <f>K9*E9</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -999,21 +999,21 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="M10">
-        <f>G10*E10</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="N10">
-        <f>I10*E10</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O10">
-        <f>K10*E10</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
@@ -1049,15 +1049,15 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <f>G11*E11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>I11*E11</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O11">
-        <f>K11*E11</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -1087,15 +1087,15 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <f>G12*E12</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N12">
-        <f>I12*E12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>K12*E12</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1128,15 +1128,15 @@
         <v>8</v>
       </c>
       <c r="M13">
-        <f>G13*E13</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="N13">
-        <f>I13*E13</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O13">
-        <f>K13*E13</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
     </row>
@@ -1160,15 +1160,15 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <f>G14*E14</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="N14">
-        <f>I14*E14</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>K14*E14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Shell/Bom.xlsx
+++ b/Shell/Bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\CNCPowerSupply\Shell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF24569-337B-4C69-BE4B-D7FFD53653D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804855F-1921-444C-B0C5-F8A86EDA356A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,21 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螺钉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垫片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六角铜柱</t>
-  </si>
-  <si>
     <t>M3*50+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M6*25圆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>固线器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,31 +218,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待采购：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M3，M4，M6，M8标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>39*39*18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M8*30圆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M8*25圆头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M6*12*1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M6*20/25圆头</t>
+    <t>M6*27圆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*20圆头</t>
+  </si>
+  <si>
+    <t>M3*20圆头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6*22/28圆头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -618,36 +594,36 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -662,16 +638,16 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -691,35 +667,35 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="0">G3*E3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N6" si="1">I3*E3</f>
@@ -732,35 +708,35 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
@@ -773,35 +749,35 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
@@ -814,35 +790,35 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
@@ -855,28 +831,28 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -896,28 +872,28 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>12</v>
@@ -937,28 +913,28 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -978,28 +954,28 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1019,31 +995,31 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1063,25 +1039,25 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1101,28 +1077,28 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1142,13 +1118,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1172,125 +1148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17">
         <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
